--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>ACCESSION_SEARCH</t>
   </si>
@@ -172,13 +172,19 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +203,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -233,6 +247,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +544,7 @@
     <col min="5" max="5" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -542,8 +560,11 @@
       <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,8 +580,11 @@
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -577,7 +601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -594,7 +618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -611,7 +635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -628,7 +652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -645,7 +669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -660,7 +684,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -675,7 +699,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -689,8 +713,11 @@
         <v>12</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -704,8 +731,11 @@
         <v>14</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -714,7 +744,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -725,7 +755,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -736,7 +766,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>

--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>ACCESSION_SEARCH</t>
   </si>
@@ -244,13 +244,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
       <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -580,7 +580,7 @@
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -698,6 +698,9 @@
         <v>45</v>
       </c>
       <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -713,36 +716,36 @@
         <v>12</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="5"/>
       <c r="F11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">

--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>ACCESSION_SEARCH</t>
   </si>
@@ -96,12 +96,6 @@
     <t>DNA sequence</t>
   </si>
   <si>
-    <t>1 hash and 1 string</t>
-  </si>
-  <si>
-    <t>hash of exons position and string with dna sequence</t>
-  </si>
-  <si>
     <t>Coding sequence and amino acids sequence</t>
   </si>
   <si>
@@ -150,15 +144,9 @@
     <t>INTRON/EXON</t>
   </si>
   <si>
-    <t>hash or array with alternate intron/exons to be then highlighted in the cgi.</t>
-  </si>
-  <si>
     <t>full dna sequence string and hash of exons position</t>
   </si>
   <si>
-    <t>String of the coding DNA (concatenated exons)</t>
-  </si>
-  <si>
     <t>ALL_Protein</t>
   </si>
   <si>
@@ -178,6 +166,21 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Does not need a function</t>
+  </si>
+  <si>
+    <t>Does not need a function.</t>
+  </si>
+  <si>
+    <t>The coding sequence; concatenated exons (1 string).</t>
+  </si>
+  <si>
+    <t>This task can be completed by only giving the front end the full DNA sequence and an hash of exons positions/length; both retrievable with queries; all the front end needs is to know which sbstring within the main string to highligh; same we decided to do for the restriction sites task.</t>
+  </si>
+  <si>
+    <t>The front end can do this task with 2 lines of code by only having the full DNA sequence and an hash of exons position. We aleady have SQL fnctions retrieving those for the front end to use.  The front end just need to place tags around each exon subtring.</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,19 +552,19 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,27 +581,27 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -606,16 +609,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -623,16 +626,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -640,16 +643,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -657,49 +660,54 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -707,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -717,7 +725,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -725,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
@@ -735,7 +743,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,7 +768,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -771,7 +779,7 @@
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
@@ -780,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>ACCESSION_SEARCH</t>
   </si>
@@ -526,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +603,9 @@
       <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -620,6 +623,9 @@
       <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -637,6 +643,7 @@
       <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -654,6 +661,7 @@
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">

--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>ACCESSION_SEARCH</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>The front end can do this task with 2 lines of code by only having the full DNA sequence and an hash of exons position. We aleady have SQL fnctions retrieving those for the front end to use.  The front end just need to place tags around each exon subtring.</t>
+  </si>
+  <si>
+    <t>DOne</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,7 +540,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +646,9 @@
       <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -661,7 +666,9 @@
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">

--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -177,13 +177,16 @@
     <t>The coding sequence; concatenated exons (1 string).</t>
   </si>
   <si>
-    <t>This task can be completed by only giving the front end the full DNA sequence and an hash of exons positions/length; both retrievable with queries; all the front end needs is to know which sbstring within the main string to highligh; same we decided to do for the restriction sites task.</t>
-  </si>
-  <si>
     <t>The front end can do this task with 2 lines of code by only having the full DNA sequence and an hash of exons position. We aleady have SQL fnctions retrieving those for the front end to use.  The front end just need to place tags around each exon subtring.</t>
   </si>
   <si>
     <t>DOne</t>
+  </si>
+  <si>
+    <t>This task can be completed by only giving the front end the full DNA sequence and an hash of exons positions/length; both retrievable with queries; all the front end needs is to know which sbstring within the main string to highligh; same we decided to do for the restriction sites task. Code for the front layer:                                                                 foreach my $key (keys %exons)   {
+   substr($sequence, $key, $exons{$key}) = "&lt;div&gt;" . substr($sequence,    $key, $exons{$key} ) . "&lt;/div&gt;";
+}
+print "&lt;p&gt; $sequence &lt;/p&gt;";</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -687,7 +690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -698,10 +701,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>47</v>

--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>ACCESSION_SEARCH</t>
   </si>
@@ -532,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -689,6 +689,9 @@
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">

--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>ACCESSION_SEARCH</t>
   </si>
@@ -532,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,6 +797,9 @@
         <v>18</v>
       </c>
       <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">

--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>ACCESSION_SEARCH</t>
   </si>
@@ -93,9 +93,6 @@
     <t>1 array of concatenated product names, id and location</t>
   </si>
   <si>
-    <t>DNA sequence</t>
-  </si>
-  <si>
     <t>Coding sequence and amino acids sequence</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>1 string and 1 hash</t>
   </si>
   <si>
-    <t>2 arrays : 1 of start positions, 1 of end positions of restrictions sites. (It could be an hash).</t>
-  </si>
-  <si>
     <t>1 array of accessions</t>
   </si>
   <si>
@@ -168,25 +162,25 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Does not need a function</t>
-  </si>
-  <si>
-    <t>Does not need a function.</t>
-  </si>
-  <si>
     <t>The coding sequence; concatenated exons (1 string).</t>
   </si>
   <si>
-    <t>The front end can do this task with 2 lines of code by only having the full DNA sequence and an hash of exons position. We aleady have SQL fnctions retrieving those for the front end to use.  The front end just need to place tags around each exon subtring.</t>
-  </si>
-  <si>
     <t>DOne</t>
   </si>
   <si>
-    <t>This task can be completed by only giving the front end the full DNA sequence and an hash of exons positions/length; both retrievable with queries; all the front end needs is to know which sbstring within the main string to highligh; same we decided to do for the restriction sites task. Code for the front layer:                                                                 foreach my $key (keys %exons)   {
-   substr($sequence, $key, $exons{$key}) = "&lt;div&gt;" . substr($sequence,    $key, $exons{$key} ) . "&lt;/div&gt;";
-}
-print "&lt;p&gt; $sequence &lt;/p&gt;";</t>
+    <t>Work in progress</t>
+  </si>
+  <si>
+    <t>Does probably not need a function.</t>
+  </si>
+  <si>
+    <t>Does probably not need a function</t>
+  </si>
+  <si>
+    <t>DNA sequence and exons positions</t>
+  </si>
+  <si>
+    <t>Task different from what we thought. Done. Please se module ezymes.pm</t>
   </si>
 </sst>
 </file>
@@ -532,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,19 +552,19 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -587,30 +581,30 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -618,19 +612,19 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -638,19 +632,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -658,19 +652,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -678,39 +672,39 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -718,17 +712,17 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -736,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -746,7 +740,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -754,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
@@ -764,7 +758,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,7 +783,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -798,21 +792,21 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/middlelayer/API.xlsx
+++ b/middlelayer/API.xlsx
@@ -19,35 +19,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
-  <si>
-    <t>ACCESSION_SEARCH</t>
-  </si>
-  <si>
-    <t>Type of search, search string</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>2 strings</t>
   </si>
   <si>
-    <t>Array of Accession numbers</t>
-  </si>
-  <si>
     <t>1 string</t>
   </si>
   <si>
     <t>DNA_SEQUENCE</t>
   </si>
   <si>
-    <t>1 string of complete DNA sequence</t>
-  </si>
-  <si>
     <t>PROTEIN_SEQUENCE</t>
   </si>
   <si>
-    <t>1 string of complete protein sequence</t>
-  </si>
-  <si>
     <t>EXONS_POSITIONS</t>
   </si>
   <si>
@@ -57,75 +42,27 @@
     <t>CODON_FREQ</t>
   </si>
   <si>
-    <t>3 hashes, codons as keys, values: amino acid, frequency, ratio</t>
-  </si>
-  <si>
     <t>PROTEIN_SEQ_SPACING</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 string protein sequence with 2 spaces(or other) on either side of each amino acid</t>
-  </si>
-  <si>
     <t>e.g -M--N--A-</t>
   </si>
   <si>
     <t>ALL_DNA</t>
   </si>
   <si>
-    <t>Concatenation of all the coding DNA</t>
-  </si>
-  <si>
-    <t>Concatenates all of the protein sequences</t>
-  </si>
-  <si>
     <t>Returns</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>SEARCH_RESULTS</t>
-  </si>
-  <si>
-    <t>1 hash: keys: list of accessions and values: list of corresponding concatenated geneID, Product name and chromosome location</t>
-  </si>
-  <si>
-    <t>1 array of concatenated product names, id and location</t>
-  </si>
-  <si>
-    <t>Coding sequence and amino acids sequence</t>
-  </si>
-  <si>
-    <t>1 string of the protein sequence</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
-    <t>2 arrays</t>
-  </si>
-  <si>
-    <t>Connects the 2 sql queries above</t>
-  </si>
-  <si>
     <t>1 string and 1 hash</t>
   </si>
   <si>
-    <t>1 array of accessions</t>
-  </si>
-  <si>
-    <t>Accessions array</t>
-  </si>
-  <si>
-    <t>2 arrays; 1 accessions array, 1 array with each value = concatenated id, product and location.</t>
-  </si>
-  <si>
-    <t>PRODUCT_LOCATION_ID</t>
-  </si>
-  <si>
-    <t>Accession clicked</t>
-  </si>
-  <si>
     <t>1 string (The clicked accession)</t>
   </si>
   <si>
@@ -135,12 +72,6 @@
     <t>SQL query and exons length calculation (Diff. end - start).</t>
   </si>
   <si>
-    <t>INTRON/EXON</t>
-  </si>
-  <si>
-    <t>full dna sequence string and hash of exons position</t>
-  </si>
-  <si>
     <t>ALL_Protein</t>
   </si>
   <si>
@@ -168,19 +99,58 @@
     <t>DOne</t>
   </si>
   <si>
-    <t>Work in progress</t>
-  </si>
-  <si>
-    <t>Does probably not need a function.</t>
-  </si>
-  <si>
-    <t>Does probably not need a function</t>
-  </si>
-  <si>
-    <t>DNA sequence and exons positions</t>
-  </si>
-  <si>
-    <t>Task different from what we thought. Done. Please se module ezymes.pm</t>
+    <t>Array of exons; each value in the array is the sequence of an exon.</t>
+  </si>
+  <si>
+    <t>True if the enzyme can cut the sequence at the 5 and 3 end and not in between.</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>INTRON/EXON_HIGHLIGHTING</t>
+  </si>
+  <si>
+    <t>1 string of complete DNA sequence.</t>
+  </si>
+  <si>
+    <t>Hash of Results.</t>
+  </si>
+  <si>
+    <t>1 string of complete protein sequence.</t>
+  </si>
+  <si>
+    <t>3 hashes, codons as keys, values: amino acid, frequency, ratio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 string protein sequence with 2 spaces(or other) on either side of each amino acid.</t>
+  </si>
+  <si>
+    <t>Retrieve all coding DNAs sequences.</t>
+  </si>
+  <si>
+    <t>Retrieve all protein sequences.</t>
+  </si>
+  <si>
+    <t>DNA sequence and exons positions.</t>
+  </si>
+  <si>
+    <t>1 string of the protein sequence.</t>
+  </si>
+  <si>
+    <t>Coding sequence and amino acids sequence.</t>
+  </si>
+  <si>
+    <t>Full dna sequence string and hash of exons position.</t>
+  </si>
+  <si>
+    <t>DNA sequence and exons positions hash.</t>
+  </si>
+  <si>
+    <t>Accession clicked.</t>
+  </si>
+  <si>
+    <t>Type of search, search string.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,272 +519,236 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
